--- a/BenchmarkData.xlsx
+++ b/BenchmarkData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Overview Data" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="46">
   <si>
     <t>Benchmark #</t>
   </si>
@@ -123,6 +123,51 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>Graph Coloring Summary Table</t>
+  </si>
+  <si>
+    <t>N (number of vertices)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>M (number of edges)</t>
+  </si>
+  <si>
+    <t>min degree</t>
+  </si>
+  <si>
+    <t>avg. degree</t>
+  </si>
+  <si>
+    <t>max degree</t>
+  </si>
+  <si>
+    <t>max degree when deleted</t>
+  </si>
+  <si>
+    <t>number of colors</t>
+  </si>
+  <si>
+    <t>max color class size</t>
+  </si>
+  <si>
+    <t>terminal clique size</t>
+  </si>
+  <si>
+    <t>Timing Data Table</t>
+  </si>
+  <si>
+    <t>Bipartite Backbone Stats Table</t>
+  </si>
+  <si>
+    <t>–-</t>
+  </si>
+  <si>
+    <t>edges in max bipartite subgraph</t>
+  </si>
 </sst>
 </file>
 
@@ -153,15 +198,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,8 +226,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -186,8 +258,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -198,8 +278,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -207,6 +289,10 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -214,6 +300,10 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -241,6 +331,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph Generation and Graph Coloring Times</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. |V| + |E|</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -319,41 +439,86 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Overview Data'!$F$3:$F$12</c:f>
+              <c:f>'Overview Data'!$F$16:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15697.0</c:v>
+                  <c:v>15733.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123011.0</c:v>
+                  <c:v>121482.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>521011.0</c:v>
+                  <c:v>523230.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.117127E6</c:v>
+                  <c:v>2.11409E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.998823E6</c:v>
+                  <c:v>3.999271E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124974.0</c:v>
+                  <c:v>125857.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>239572.0</c:v>
+                  <c:v>243432.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.015355E6</c:v>
+                  <c:v>120478.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>765060.0</c:v>
+                  <c:v>938341.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.345678E6</c:v>
+                  <c:v>3.83737E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -432,80 +597,130 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.171981180136469"/>
+                  <c:y val="-0.0130424321959755"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Overview Data'!$F$3:$F$12</c:f>
+              <c:f>'Overview Data'!$F$16:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15697.0</c:v>
+                  <c:v>15733.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123011.0</c:v>
+                  <c:v>121482.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>521011.0</c:v>
+                  <c:v>523230.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.117127E6</c:v>
+                  <c:v>2.11409E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.998823E6</c:v>
+                  <c:v>3.999271E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124974.0</c:v>
+                  <c:v>125857.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>239572.0</c:v>
+                  <c:v>243432.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.015355E6</c:v>
+                  <c:v>120478.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>765060.0</c:v>
+                  <c:v>938341.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.345678E6</c:v>
+                  <c:v>3.83737E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Overview Data'!$P$3:$P$12</c:f>
+              <c:f>'Overview Data'!$P$16:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.048</c:v>
+                  <c:v>0.049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.534</c:v>
+                  <c:v>0.526</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.369</c:v>
+                  <c:v>2.268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.488</c:v>
+                  <c:v>9.265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.591</c:v>
+                  <c:v>25.458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.528</c:v>
+                  <c:v>0.571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.556</c:v>
+                  <c:v>1.745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.381</c:v>
+                  <c:v>0.504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.33</c:v>
+                  <c:v>5.919</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.176</c:v>
+                  <c:v>25.274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,6 +759,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>|V| + |E|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -606,6 +877,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1447,6 +1774,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Smallest Last Ordering Time vs. |V| + |E|</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1492,12 +1880,62 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0202029790470208"/>
+                  <c:y val="-0.0744907407407407"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Overview Data'!$F$16:$F$30</c:f>
+              <c:f>'Overview Data'!$F$16:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>15733.0</c:v>
                 </c:pt>
@@ -1527,28 +1965,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.83737E6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.01783E6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>764944.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.344524E6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.595191E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Overview Data'!$O$16:$O$30</c:f>
+              <c:f>'Overview Data'!$O$16:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.136</c:v>
                 </c:pt>
@@ -1578,18 +2004,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>324.988</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>82.585</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>47.895</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>128.216</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>190.817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,6 +2042,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>|V| + |E|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1689,6 +2159,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Smallest Last Ordering Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1737,8 +2263,88 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Smallest Last Ordering Time vs. |V|^2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> + |E|</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1753,7 +2359,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1768,7 +2374,2611 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0202154462413487"/>
+                  <c:y val="-0.0050462962962963"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Overview Data'!$R$16:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.014733E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6117482E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5650723E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.09805009E9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.099935271E9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6121857E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6239432E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6116478E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.56922341E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.09977337E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Overview Data'!$O$16:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>341.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>324.988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-911061376"/>
+        <c:axId val="-911059056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-911061376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>|V|^2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> + |E|</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-911059056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-911059056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Smallest Last Ordering Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-911061376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Graph Generation Time vs. |V| + |E|</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0202029790470208"/>
+                  <c:y val="-0.0744907407407407"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Overview Data'!$F$16:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15733.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121482.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523230.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.11409E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.999271E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125857.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243432.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120478.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>938341.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.83737E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Overview Data'!$N$16:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.462</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-899151168"/>
+        <c:axId val="-902878208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-899151168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>|V| + |E|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-902878208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-902878208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Graph</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Generation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-899151168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Graph Coloring Time vs. |V| + |E|</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0202029790470208"/>
+                  <c:y val="-0.0744907407407407"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Overview Data'!$F$16:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15733.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121482.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523230.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.11409E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.999271E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125857.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243432.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120478.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>938341.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.83737E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Overview Data'!$P$16:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.745</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-988867520"/>
+        <c:axId val="-847093776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-988867520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>|V| + |E|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-847093776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-847093776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Graph</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Coloring </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-988867520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bipartite Stats Time vs. |V|^2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> + |E|</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0202154462413487"/>
+                  <c:y val="-0.0050462962962963"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Overview Data'!$R$16:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.014733E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6117482E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5650723E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.09805009E9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.099935271E9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6121857E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6239432E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6116478E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.56922341E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.09977337E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Overview Data'!$Q$16:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-900261328"/>
+        <c:axId val="-899820768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-900261328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>|V|^2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> + |E|</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-899820768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-899820768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bipartite</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Stats</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-900261328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Bipartite Stats Time vs. |V| + |E|</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0202029790470208"/>
+                  <c:y val="-0.0744907407407407"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Overview Data'!$F$16:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15733.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121482.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523230.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.11409E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.999271E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125857.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243432.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120478.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>938341.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.83737E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Overview Data'!$Q$16:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-847226720"/>
+        <c:axId val="-847223600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-847226720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>|V| + |E|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-847223600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-847223600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bipartite</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Stats </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-847226720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1966,6 +5176,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3515,6 +6925,2586 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4158,6 +10148,166 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>681788</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>56147</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>401053</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>147052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>601578</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>82884</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>427788</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>136358</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>427789</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>136358</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>427789</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>136358</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4424,10 +10574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R83"/>
+  <dimension ref="A2:AV83"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="AD3" zoomScale="95" workbookViewId="0">
+      <selection activeCell="AM44" sqref="AM44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4439,9 +10589,20 @@
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="18" max="18" width="12.6640625" customWidth="1"/>
+    <col min="37" max="37" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.33203125" customWidth="1"/>
+    <col min="39" max="39" width="8.5" customWidth="1"/>
+    <col min="40" max="40" width="9.6640625" customWidth="1"/>
+    <col min="41" max="41" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.1640625" customWidth="1"/>
+    <col min="45" max="46" width="8.6640625" customWidth="1"/>
+    <col min="47" max="47" width="8.83203125" customWidth="1"/>
+    <col min="48" max="48" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" ht="64" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4493,8 +10654,11 @@
       <c r="R2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="AK2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" ht="48" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -4545,8 +10709,44 @@
         <f>C3+2*G3</f>
         <v>30394</v>
       </c>
+      <c r="AK3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -4597,8 +10797,56 @@
         <f>C4*C4+G4</f>
         <v>16119011</v>
       </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1000</v>
+      </c>
+      <c r="AH4">
+        <v>32</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1000</v>
+      </c>
+      <c r="AM4">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AN4">
+        <v>14529</v>
+      </c>
+      <c r="AO4">
+        <v>8</v>
+      </c>
+      <c r="AP4">
+        <v>29.058</v>
+      </c>
+      <c r="AQ4">
+        <v>46</v>
+      </c>
+      <c r="AR4">
+        <v>20</v>
+      </c>
+      <c r="AS4">
+        <v>19</v>
+      </c>
+      <c r="AT4">
+        <v>18</v>
+      </c>
+      <c r="AU4">
+        <v>77</v>
+      </c>
+      <c r="AV4">
+        <v>183</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -4646,11 +10894,59 @@
         <v>2.3690000000000002</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R13" si="1">C5*C5+G5</f>
+        <f t="shared" ref="R5:R25" si="1">C5*C5+G5</f>
         <v>256505011</v>
       </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>4000</v>
+      </c>
+      <c r="AH5">
+        <v>64</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5">
+        <v>2</v>
+      </c>
+      <c r="AL5">
+        <v>4000</v>
+      </c>
+      <c r="AM5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AN5">
+        <v>119501</v>
+      </c>
+      <c r="AO5">
+        <v>11</v>
+      </c>
+      <c r="AP5">
+        <v>59.750999999999998</v>
+      </c>
+      <c r="AQ5">
+        <v>87</v>
+      </c>
+      <c r="AR5">
+        <v>37</v>
+      </c>
+      <c r="AS5">
+        <v>34</v>
+      </c>
+      <c r="AT5">
+        <v>31</v>
+      </c>
+      <c r="AU5">
+        <v>167</v>
+      </c>
+      <c r="AV5">
+        <v>418</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -4701,8 +10997,56 @@
         <f t="shared" si="1"/>
         <v>4098053127</v>
       </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
+      <c r="AG6">
+        <v>16000</v>
+      </c>
+      <c r="AH6">
+        <v>64</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK6">
+        <v>3</v>
+      </c>
+      <c r="AL6">
+        <v>16000</v>
+      </c>
+      <c r="AM6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AN6">
+        <v>505902</v>
+      </c>
+      <c r="AO6">
+        <v>18</v>
+      </c>
+      <c r="AP6">
+        <v>63.238</v>
+      </c>
+      <c r="AQ6">
+        <v>94</v>
+      </c>
+      <c r="AR6">
+        <v>39</v>
+      </c>
+      <c r="AS6">
+        <v>36</v>
+      </c>
+      <c r="AT6">
+        <v>31</v>
+      </c>
+      <c r="AU6">
+        <v>630</v>
+      </c>
+      <c r="AV6">
+        <v>1628</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -4753,8 +11097,56 @@
         <f t="shared" si="1"/>
         <v>4099934823</v>
       </c>
+      <c r="AF7">
+        <v>4</v>
+      </c>
+      <c r="AG7">
+        <v>64000</v>
+      </c>
+      <c r="AH7">
+        <v>64</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK7">
+        <v>4</v>
+      </c>
+      <c r="AL7">
+        <v>64000</v>
+      </c>
+      <c r="AM7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AN7">
+        <v>2054421</v>
+      </c>
+      <c r="AO7">
+        <v>17</v>
+      </c>
+      <c r="AP7">
+        <v>64.200999999999993</v>
+      </c>
+      <c r="AQ7">
+        <v>96</v>
+      </c>
+      <c r="AR7">
+        <v>40</v>
+      </c>
+      <c r="AS7">
+        <v>38</v>
+      </c>
+      <c r="AT7">
+        <v>36</v>
+      </c>
+      <c r="AU7">
+        <v>2491</v>
+      </c>
+      <c r="AV7">
+        <v>6400</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -4805,8 +11197,56 @@
         <f t="shared" si="1"/>
         <v>16120974</v>
       </c>
+      <c r="AF8">
+        <v>5</v>
+      </c>
+      <c r="AG8">
+        <v>64000</v>
+      </c>
+      <c r="AH8">
+        <v>128</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK8">
+        <v>5</v>
+      </c>
+      <c r="AL8">
+        <v>64000</v>
+      </c>
+      <c r="AM8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN8">
+        <v>3937016</v>
+      </c>
+      <c r="AO8">
+        <v>34</v>
+      </c>
+      <c r="AP8">
+        <v>123.032</v>
+      </c>
+      <c r="AQ8">
+        <v>164</v>
+      </c>
+      <c r="AR8">
+        <v>72</v>
+      </c>
+      <c r="AS8">
+        <v>65</v>
+      </c>
+      <c r="AT8">
+        <v>52</v>
+      </c>
+      <c r="AU8">
+        <v>1398</v>
+      </c>
+      <c r="AV8">
+        <v>3806</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -4857,8 +11297,56 @@
         <f t="shared" si="1"/>
         <v>16235572</v>
       </c>
+      <c r="AF9">
+        <v>6</v>
+      </c>
+      <c r="AG9">
+        <v>4000</v>
+      </c>
+      <c r="AH9">
+        <v>64</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK9">
+        <v>6</v>
+      </c>
+      <c r="AL9">
+        <v>4000</v>
+      </c>
+      <c r="AM9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AN9">
+        <v>120574</v>
+      </c>
+      <c r="AO9">
+        <v>20</v>
+      </c>
+      <c r="AP9">
+        <v>60.286999999999999</v>
+      </c>
+      <c r="AQ9">
+        <v>90</v>
+      </c>
+      <c r="AR9">
+        <v>38</v>
+      </c>
+      <c r="AS9">
+        <v>34</v>
+      </c>
+      <c r="AT9">
+        <v>30</v>
+      </c>
+      <c r="AU9">
+        <v>164</v>
+      </c>
+      <c r="AV9">
+        <v>416</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -4912,8 +11400,56 @@
         <f t="shared" si="1"/>
         <v>1024983355</v>
       </c>
+      <c r="AF10">
+        <v>7</v>
+      </c>
+      <c r="AG10">
+        <v>4000</v>
+      </c>
+      <c r="AH10">
+        <v>128</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK10">
+        <v>7</v>
+      </c>
+      <c r="AL10">
+        <v>4000</v>
+      </c>
+      <c r="AM10">
+        <v>0.09</v>
+      </c>
+      <c r="AN10">
+        <v>235794</v>
+      </c>
+      <c r="AO10">
+        <v>47</v>
+      </c>
+      <c r="AP10">
+        <v>117.89700000000001</v>
+      </c>
+      <c r="AQ10">
+        <v>164</v>
+      </c>
+      <c r="AR10">
+        <v>68</v>
+      </c>
+      <c r="AS10">
+        <v>59</v>
+      </c>
+      <c r="AT10">
+        <v>52</v>
+      </c>
+      <c r="AU10">
+        <v>89</v>
+      </c>
+      <c r="AV10">
+        <v>244</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4967,8 +11503,56 @@
         <f t="shared" si="1"/>
         <v>576741060</v>
       </c>
+      <c r="AF11">
+        <v>8</v>
+      </c>
+      <c r="AG11">
+        <v>4000</v>
+      </c>
+      <c r="AH11">
+        <v>64</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK11">
+        <v>8</v>
+      </c>
+      <c r="AL11">
+        <v>4000</v>
+      </c>
+      <c r="AM11">
+        <v>0.252</v>
+      </c>
+      <c r="AN11">
+        <v>116325</v>
+      </c>
+      <c r="AO11">
+        <v>26</v>
+      </c>
+      <c r="AP11">
+        <v>58.162999999999997</v>
+      </c>
+      <c r="AQ11">
+        <v>86</v>
+      </c>
+      <c r="AR11">
+        <v>36</v>
+      </c>
+      <c r="AS11">
+        <v>34</v>
+      </c>
+      <c r="AT11">
+        <v>30</v>
+      </c>
+      <c r="AU11">
+        <v>169</v>
+      </c>
+      <c r="AV11">
+        <v>443</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5022,8 +11606,56 @@
         <f t="shared" si="1"/>
         <v>1601305678</v>
       </c>
+      <c r="AF12">
+        <v>9</v>
+      </c>
+      <c r="AG12">
+        <v>16000</v>
+      </c>
+      <c r="AH12">
+        <v>128</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK12">
+        <v>9</v>
+      </c>
+      <c r="AL12">
+        <v>16000</v>
+      </c>
+      <c r="AM12">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AN12">
+        <v>924732</v>
+      </c>
+      <c r="AO12">
+        <v>47</v>
+      </c>
+      <c r="AP12">
+        <v>115.592</v>
+      </c>
+      <c r="AQ12">
+        <v>158</v>
+      </c>
+      <c r="AR12">
+        <v>70</v>
+      </c>
+      <c r="AS12">
+        <v>62</v>
+      </c>
+      <c r="AT12">
+        <v>62</v>
+      </c>
+      <c r="AU12">
+        <v>366</v>
+      </c>
+      <c r="AV12">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -5077,8 +11709,68 @@
         <f t="shared" si="1"/>
         <v>2501543536</v>
       </c>
+      <c r="AF13">
+        <v>10</v>
+      </c>
+      <c r="AG13">
+        <v>64000</v>
+      </c>
+      <c r="AH13">
+        <v>128</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK13">
+        <v>10</v>
+      </c>
+      <c r="AL13">
+        <v>64000</v>
+      </c>
+      <c r="AM13">
+        <v>0.09</v>
+      </c>
+      <c r="AN13">
+        <v>3772681</v>
+      </c>
+      <c r="AO13">
+        <v>50</v>
+      </c>
+      <c r="AP13">
+        <v>117.896</v>
+      </c>
+      <c r="AQ13">
+        <v>173</v>
+      </c>
+      <c r="AR13">
+        <v>74</v>
+      </c>
+      <c r="AS13">
+        <v>66</v>
+      </c>
+      <c r="AT13">
+        <v>55</v>
+      </c>
+      <c r="AU13">
+        <v>1449</v>
+      </c>
+      <c r="AV13">
+        <v>3902</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>1</v>
       </c>
@@ -5128,8 +11820,12 @@
       <c r="Q16">
         <v>0.155</v>
       </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>1014733</v>
+      </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>2</v>
       </c>
@@ -5179,8 +11875,15 @@
       <c r="Q17">
         <v>1.012</v>
       </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>16117482</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:45" ht="64" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>3</v>
       </c>
@@ -5230,8 +11933,27 @@
       <c r="Q18">
         <v>8.673</v>
       </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>256507230</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>4</v>
       </c>
@@ -5281,8 +12003,27 @@
       <c r="Q19">
         <v>102.96299999999999</v>
       </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>4098050090</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AM19">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AN19">
+        <v>0.05</v>
+      </c>
+      <c r="AO19">
+        <v>0.159</v>
+      </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>5</v>
       </c>
@@ -5332,8 +12073,27 @@
       <c r="Q20">
         <v>51.680999999999997</v>
       </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>4099935271</v>
+      </c>
+      <c r="AK20">
+        <v>2</v>
+      </c>
+      <c r="AL20">
+        <v>0.34</v>
+      </c>
+      <c r="AM20">
+        <v>1.6</v>
+      </c>
+      <c r="AN20">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="AO20">
+        <v>1.0289999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>6</v>
       </c>
@@ -5383,8 +12143,27 @@
       <c r="Q21">
         <v>1.0720000000000001</v>
       </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>16121857</v>
+      </c>
+      <c r="AK21">
+        <v>3</v>
+      </c>
+      <c r="AL21">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="AM21">
+        <v>21.295000000000002</v>
+      </c>
+      <c r="AN21">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="AO21">
+        <v>8.44</v>
+      </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>7</v>
       </c>
@@ -5434,8 +12213,27 @@
       <c r="Q22">
         <v>1.3380000000000001</v>
       </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>16239432</v>
+      </c>
+      <c r="AK22">
+        <v>4</v>
+      </c>
+      <c r="AL22">
+        <v>5.8159999999999998</v>
+      </c>
+      <c r="AM22">
+        <v>337.72199999999998</v>
+      </c>
+      <c r="AN22">
+        <v>9.5139999999999993</v>
+      </c>
+      <c r="AO22">
+        <v>101.776</v>
+      </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>8</v>
       </c>
@@ -5485,8 +12283,27 @@
       <c r="Q23">
         <v>1.038</v>
       </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>16116478</v>
+      </c>
+      <c r="AK23">
+        <v>5</v>
+      </c>
+      <c r="AL23">
+        <v>10.914999999999999</v>
+      </c>
+      <c r="AM23">
+        <v>320.97300000000001</v>
+      </c>
+      <c r="AN23">
+        <v>26.920999999999999</v>
+      </c>
+      <c r="AO23">
+        <v>50.636000000000003</v>
+      </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>9</v>
       </c>
@@ -5536,8 +12353,27 @@
       <c r="Q24">
         <v>6.9089999999999998</v>
       </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>256922341</v>
+      </c>
+      <c r="AK24">
+        <v>6</v>
+      </c>
+      <c r="AL24">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AM24">
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="AN24">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="AO24">
+        <v>1.052</v>
+      </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>10</v>
       </c>
@@ -5587,8 +12423,44 @@
       <c r="Q25">
         <v>52.088999999999999</v>
       </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>4099773370</v>
+      </c>
+      <c r="AK25">
+        <v>7</v>
+      </c>
+      <c r="AL25">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="AM25">
+        <v>1.964</v>
+      </c>
+      <c r="AN25">
+        <v>1.66</v>
+      </c>
+      <c r="AO25">
+        <v>1.2310000000000001</v>
+      </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AK26">
+        <v>8</v>
+      </c>
+      <c r="AL26">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="AM26">
+        <v>1.869</v>
+      </c>
+      <c r="AN26">
+        <v>0.51</v>
+      </c>
+      <c r="AO26">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>8</v>
       </c>
@@ -5635,8 +12507,23 @@
       <c r="P27">
         <v>4.2839999999999998</v>
       </c>
+      <c r="AK27">
+        <v>9</v>
+      </c>
+      <c r="AL27">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="AM27">
+        <v>26.196000000000002</v>
+      </c>
+      <c r="AN27">
+        <v>6.2720000000000002</v>
+      </c>
+      <c r="AO27">
+        <v>6.8</v>
+      </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>9</v>
       </c>
@@ -5683,8 +12570,23 @@
       <c r="P28">
         <v>3.202</v>
       </c>
+      <c r="AK28">
+        <v>10</v>
+      </c>
+      <c r="AL28">
+        <v>14.775</v>
+      </c>
+      <c r="AM28">
+        <v>300.27499999999998</v>
+      </c>
+      <c r="AN28">
+        <v>26.571000000000002</v>
+      </c>
+      <c r="AO28">
+        <v>51.338999999999999</v>
+      </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>10</v>
       </c>
@@ -5732,7 +12634,7 @@
         <v>5.7629999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>11</v>
       </c>
@@ -5778,6 +12680,318 @@
       </c>
       <c r="P30">
         <v>6.6849999999999996</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:45" ht="96" x14ac:dyDescent="0.2">
+      <c r="AK31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>151</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>182</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="AO32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP32" s="3">
+        <v>150</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>177</v>
+      </c>
+      <c r="AR32" s="3">
+        <v>99.6</v>
+      </c>
+      <c r="AS32" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="37:45" x14ac:dyDescent="0.2">
+      <c r="AK33">
+        <v>2</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>329</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>416</v>
+      </c>
+      <c r="AN33" s="3">
+        <v>99.95</v>
+      </c>
+      <c r="AO33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP33" s="3">
+        <v>324</v>
+      </c>
+      <c r="AQ33" s="3">
+        <v>405</v>
+      </c>
+      <c r="AR33" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="AS33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="37:45" x14ac:dyDescent="0.2">
+      <c r="AK34">
+        <v>3</v>
+      </c>
+      <c r="AL34" s="3">
+        <v>1228</v>
+      </c>
+      <c r="AM34" s="3">
+        <v>1613</v>
+      </c>
+      <c r="AN34" s="3">
+        <v>99.7</v>
+      </c>
+      <c r="AO34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP34" s="3">
+        <v>1240</v>
+      </c>
+      <c r="AQ34" s="3">
+        <v>1606</v>
+      </c>
+      <c r="AR34" s="3">
+        <v>99.92</v>
+      </c>
+      <c r="AS34" s="3"/>
+    </row>
+    <row r="35" spans="37:45" x14ac:dyDescent="0.2">
+      <c r="AK35">
+        <v>4</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>4902</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>6359</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>99.73</v>
+      </c>
+      <c r="AO35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP35" s="3">
+        <v>4875</v>
+      </c>
+      <c r="AQ35" s="3">
+        <v>6329</v>
+      </c>
+      <c r="AR35" s="3">
+        <v>99.82</v>
+      </c>
+      <c r="AS35" s="3"/>
+    </row>
+    <row r="36" spans="37:45" x14ac:dyDescent="0.2">
+      <c r="AK36">
+        <v>5</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>2778</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>3790</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>99.98</v>
+      </c>
+      <c r="AO36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP36" s="3">
+        <v>2769</v>
+      </c>
+      <c r="AQ36" s="3">
+        <v>3786</v>
+      </c>
+      <c r="AR36" s="3">
+        <v>99.97</v>
+      </c>
+      <c r="AS36" s="3"/>
+    </row>
+    <row r="37" spans="37:45" x14ac:dyDescent="0.2">
+      <c r="AK37">
+        <v>6</v>
+      </c>
+      <c r="AL37" s="3">
+        <v>324</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>415</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>99.95</v>
+      </c>
+      <c r="AO37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP37" s="3">
+        <v>323</v>
+      </c>
+      <c r="AQ37" s="3">
+        <v>414</v>
+      </c>
+      <c r="AR37" s="3">
+        <v>99.95</v>
+      </c>
+      <c r="AS37" s="3"/>
+    </row>
+    <row r="38" spans="37:45" x14ac:dyDescent="0.2">
+      <c r="AK38">
+        <v>7</v>
+      </c>
+      <c r="AL38" s="3">
+        <v>176</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>236</v>
+      </c>
+      <c r="AN38" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP38" s="3">
+        <v>173</v>
+      </c>
+      <c r="AQ38" s="3">
+        <v>233</v>
+      </c>
+      <c r="AR38" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="AS38" s="3"/>
+    </row>
+    <row r="39" spans="37:45" x14ac:dyDescent="0.2">
+      <c r="AK39">
+        <v>8</v>
+      </c>
+      <c r="AL39" s="3">
+        <v>333</v>
+      </c>
+      <c r="AM39" s="3">
+        <v>428</v>
+      </c>
+      <c r="AN39" s="3">
+        <v>100</v>
+      </c>
+      <c r="AO39" s="3">
+        <v>97</v>
+      </c>
+      <c r="AP39" s="3">
+        <v>333</v>
+      </c>
+      <c r="AQ39" s="3">
+        <v>422</v>
+      </c>
+      <c r="AR39" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="AS39" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="37:45" x14ac:dyDescent="0.2">
+      <c r="AK40">
+        <v>9</v>
+      </c>
+      <c r="AL40" s="3">
+        <v>725</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>997</v>
+      </c>
+      <c r="AN40" s="3">
+        <v>99.96</v>
+      </c>
+      <c r="AO40" s="3">
+        <v>274</v>
+      </c>
+      <c r="AP40" s="3">
+        <v>722</v>
+      </c>
+      <c r="AQ40" s="3">
+        <v>960</v>
+      </c>
+      <c r="AR40" s="3">
+        <v>99.93</v>
+      </c>
+      <c r="AS40" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="37:45" x14ac:dyDescent="0.2">
+      <c r="AK41">
+        <v>10</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>2859</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>3888</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>99.82</v>
+      </c>
+      <c r="AO41" s="3">
+        <v>1031</v>
+      </c>
+      <c r="AP41" s="3">
+        <v>2859</v>
+      </c>
+      <c r="AQ41" s="3">
+        <v>3864</v>
+      </c>
+      <c r="AR41" s="3">
+        <v>99.96</v>
+      </c>
+      <c r="AS41" s="3">
+        <v>1007</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
@@ -6379,8 +13593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6709,15 +13923,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:A21"/>
+  <dimension ref="C4:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6725,19 +13940,26 @@
     <col min="1" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/BenchmarkData.xlsx
+++ b/BenchmarkData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Overview Data" sheetId="1" r:id="rId1"/>
@@ -242,8 +242,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -281,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -293,6 +305,12 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -304,6 +322,12 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1013,6 +1037,543 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Smallest Last Ordering Time vs. |V| + |E|</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0202029790470208"/>
+                  <c:y val="-0.0744907407407407"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Overview Data'!$F$16:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15733.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121482.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523230.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.11409E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.999271E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125857.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243432.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120478.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>938341.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.83737E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Overview Data'!$AR$19:$AR$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320.973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300.275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-796785472"/>
+        <c:axId val="-901622144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-796785472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>|V| + |E|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-901622144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-901622144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Smallest Last Ordering Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-796785472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1971,39 +2532,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Overview Data'!$O$16:$O$25</c:f>
+              <c:f>'Overview Data'!$AM$19:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.136</c:v>
+                  <c:v>0.137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.677</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.097</c:v>
+                  <c:v>21.295</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>329.292</c:v>
+                  <c:v>337.722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>341.375</c:v>
+                  <c:v>320.973</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.733</c:v>
+                  <c:v>1.654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.151</c:v>
+                  <c:v>1.964</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.838</c:v>
+                  <c:v>1.869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.429</c:v>
+                  <c:v>26.196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>324.988</c:v>
+                  <c:v>300.275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2497,39 +3058,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Overview Data'!$O$16:$O$25</c:f>
+              <c:f>'Overview Data'!$AM$19:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.136</c:v>
+                  <c:v>0.137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.677</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.097</c:v>
+                  <c:v>21.295</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>329.292</c:v>
+                  <c:v>337.722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>341.375</c:v>
+                  <c:v>320.973</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.733</c:v>
+                  <c:v>1.654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.151</c:v>
+                  <c:v>1.964</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.838</c:v>
+                  <c:v>1.869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.429</c:v>
+                  <c:v>26.196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>324.988</c:v>
+                  <c:v>300.275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3043,39 +3604,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Overview Data'!$N$16:$N$25</c:f>
+              <c:f>'Overview Data'!$AL$19:$AL$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.052</c:v>
+                  <c:v>0.044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.331</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.421</c:v>
+                  <c:v>1.416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.793</c:v>
+                  <c:v>5.816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.901</c:v>
+                  <c:v>10.915</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.335</c:v>
+                  <c:v>0.328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.633</c:v>
+                  <c:v>0.646</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.462</c:v>
+                  <c:v>0.472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.578</c:v>
+                  <c:v>3.547</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.654</c:v>
+                  <c:v>14.775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3591,39 +4152,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Overview Data'!$P$16:$P$25</c:f>
+              <c:f>'Overview Data'!$AN$19:$AN$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.049</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.526</c:v>
+                  <c:v>0.532</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.268</c:v>
+                  <c:v>2.362</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.265</c:v>
+                  <c:v>9.514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.458</c:v>
+                  <c:v>26.921</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.571</c:v>
+                  <c:v>0.539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.745</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.504</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.919</c:v>
+                  <c:v>6.272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.274</c:v>
+                  <c:v>26.571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4679,39 +5240,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Overview Data'!$Q$16:$Q$25</c:f>
+              <c:f>'Overview Data'!$AO$19:$AO$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.155</c:v>
+                  <c:v>0.159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.012</c:v>
+                  <c:v>1.029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.673</c:v>
+                  <c:v>8.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.963</c:v>
+                  <c:v>101.776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.681</c:v>
+                  <c:v>50.636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.072</c:v>
+                  <c:v>1.052</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.338</c:v>
+                  <c:v>1.231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.038</c:v>
+                  <c:v>0.975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.909</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.089</c:v>
+                  <c:v>51.339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5017,6 +5578,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5892,6 +6493,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10182,16 +11299,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>401053</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>147052</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>66843</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>601578</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>82884</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>40105</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>160421</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10214,16 +11331,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>267368</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>93579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>427788</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>136358</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>695157</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>29411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10278,16 +11395,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>721896</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>427789</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>136358</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>320842</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>176463</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10303,6 +11420,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>494632</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>93578</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>26736</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10576,8 +11725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AV83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD3" zoomScale="95" workbookViewId="0">
-      <selection activeCell="AM44" sqref="AM44"/>
+    <sheetView tabSelected="1" topLeftCell="AB27" zoomScale="95" workbookViewId="0">
+      <selection activeCell="AI42" sqref="AI42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12022,6 +13171,9 @@
       <c r="AO19">
         <v>0.159</v>
       </c>
+      <c r="AR19">
+        <v>0.13700000000000001</v>
+      </c>
     </row>
     <row r="20" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B20">
@@ -12092,6 +13244,9 @@
       <c r="AO20">
         <v>1.0289999999999999</v>
       </c>
+      <c r="AR20">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="21" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -12162,6 +13317,9 @@
       <c r="AO21">
         <v>8.44</v>
       </c>
+      <c r="AR21">
+        <v>21.295000000000002</v>
+      </c>
     </row>
     <row r="22" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B22">
@@ -12302,6 +13460,9 @@
       <c r="AO23">
         <v>50.636000000000003</v>
       </c>
+      <c r="AR23">
+        <v>320.97300000000001</v>
+      </c>
     </row>
     <row r="24" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B24">
@@ -12372,6 +13533,9 @@
       <c r="AO24">
         <v>1.052</v>
       </c>
+      <c r="AR24">
+        <v>1.6539999999999999</v>
+      </c>
     </row>
     <row r="25" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B25">
@@ -12442,6 +13606,9 @@
       <c r="AO25">
         <v>1.2310000000000001</v>
       </c>
+      <c r="AR25">
+        <v>1.964</v>
+      </c>
     </row>
     <row r="26" spans="2:45" x14ac:dyDescent="0.2">
       <c r="AK26">
@@ -12459,6 +13626,9 @@
       <c r="AO26">
         <v>0.97499999999999998</v>
       </c>
+      <c r="AR26">
+        <v>1.869</v>
+      </c>
     </row>
     <row r="27" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B27">
@@ -12522,6 +13692,9 @@
       <c r="AO27">
         <v>6.8</v>
       </c>
+      <c r="AR27">
+        <v>26.196000000000002</v>
+      </c>
     </row>
     <row r="28" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B28">
@@ -12584,6 +13757,9 @@
       </c>
       <c r="AO28">
         <v>51.338999999999999</v>
+      </c>
+      <c r="AR28">
+        <v>300.27499999999998</v>
       </c>
     </row>
     <row r="29" spans="2:45" x14ac:dyDescent="0.2">
